--- a/biology/Botanique/Artemisia_glacialis/Artemisia_glacialis.xlsx
+++ b/biology/Botanique/Artemisia_glacialis/Artemisia_glacialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia glacialis, le Génépi des glaciers, est une espèce de plante à fleurs de la famille des Asteraceae. 
 </t>
@@ -511,15 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace rustique. Son port est celui d'une touffe dense.
-Feuillage
-Ses feuilles, longues de  1 à 3 cm, sont couvertes de poils argentés et finement divisées en 5 lobes, eux-mêmes trilobés.
-Floraison
-Floraison estivale, très petits capitules jaunes groupés en corymbe de 3 cm de diamètre.
-Taille
-Touffe de 5 cm de haut pour 15 à 20 cm de diamètre.
 </t>
         </is>
       </c>
@@ -545,10 +553,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles, longues de  1 à 3 cm, sont couvertes de poils argentés et finement divisées en 5 lobes, eux-mêmes trilobés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floraison estivale, très petits capitules jaunes groupés en corymbe de 3 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Touffe de 5 cm de haut pour 15 à 20 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_glacialis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit en France, en Suisse, dans le Piémont, dans le massif alpin entre 1 800 et 3 200 mètres d'altitude.
 </t>
